--- a/True List_v2.xlsx
+++ b/True List_v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="91">
   <si>
     <t>Billing And Accrual</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Date of Send</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physicians Regional Medical Center - Collier         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Physicians Regional Medical Center - Pine Ridge </t>
   </si>
 </sst>
 </file>
@@ -353,7 +359,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,28 +377,19 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -423,20 +420,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -721,16 +718,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7265625" customWidth="1"/>
     <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="60.90625" customWidth="1"/>
     <col min="5" max="5" width="73.36328125" bestFit="1" customWidth="1"/>
@@ -780,10 +777,10 @@
       <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -803,10 +800,10 @@
       <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -826,10 +823,10 @@
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -849,10 +846,10 @@
       <c r="E5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -872,14 +869,14 @@
       <c r="E6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="G6" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -895,14 +892,14 @@
       <c r="E7" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+      <c r="G7" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="87" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -918,14 +915,14 @@
       <c r="E8" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G8" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="G8" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -941,14 +938,14 @@
       <c r="E9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G9" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -964,14 +961,14 @@
       <c r="E10" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="G10" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -984,14 +981,14 @@
       <c r="E11" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="174" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -1004,14 +1001,14 @@
       <c r="E12" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>4</v>
       </c>
@@ -1024,14 +1021,14 @@
       <c r="E13" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="F13" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="8" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -1044,14 +1041,14 @@
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="261" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1067,12 +1064,12 @@
       <c r="E15" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G15" s="10"/>
-    </row>
-    <row r="16" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:8" ht="116" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1088,12 +1085,12 @@
       <c r="E16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" spans="1:7" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -1109,12 +1106,12 @@
       <c r="E17" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="10" t="s">
+      <c r="F17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="10"/>
-    </row>
-    <row r="18" spans="1:7" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1127,14 +1124,14 @@
       <c r="E18" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="9" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" ht="87" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1147,14 +1144,14 @@
       <c r="E19" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="10" t="s">
+      <c r="G19" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="377" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" ht="261" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1168,14 +1165,14 @@
       <c r="E20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G20" s="11" t="s">
+      <c r="G20" s="9" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1188,14 +1185,14 @@
       <c r="E21" t="s">
         <v>0</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="11" t="s">
+      <c r="G21" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" ht="130.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>4</v>
       </c>
@@ -1208,14 +1205,14 @@
       <c r="E22" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="10" t="s">
+      <c r="F22" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G22" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>4</v>
       </c>
@@ -1228,375 +1225,421 @@
       <c r="E23" t="s">
         <v>2</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="6" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="10">
+        <v>29276</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="6">
-        <v>29276</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" t="s">
-        <v>0</v>
-      </c>
-      <c r="F24" s="8" t="s">
+      <c r="E24" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G24" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="10">
+        <v>29269</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6">
-        <v>29269</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25" s="8" t="s">
+      <c r="E25" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G25" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="10">
+        <v>29759</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="6">
-        <v>29759</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" t="s">
-        <v>0</v>
-      </c>
-      <c r="F26" s="8" t="s">
+      <c r="E26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F26" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G26" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="10">
+        <v>29273</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6">
-        <v>29273</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F27" s="8" t="s">
+      <c r="E27" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G27" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="10">
+        <v>29277</v>
+      </c>
+      <c r="D28" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="6">
-        <v>29277</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F28" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G28" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="10">
+        <v>29765</v>
+      </c>
+      <c r="D29" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="6">
-        <v>29765</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>0</v>
-      </c>
-      <c r="F29" s="8" t="s">
+      <c r="E29" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F29" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G29" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>14</v>
-      </c>
-      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="10">
+        <v>29769</v>
+      </c>
+      <c r="D30" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="6">
-        <v>29769</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" t="s">
-        <v>0</v>
-      </c>
-      <c r="F30" s="8" t="s">
+      <c r="E30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G30" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="10">
+        <v>29770</v>
+      </c>
+      <c r="D31" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="6">
-        <v>29770</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31" s="8" t="s">
+      <c r="E31" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G31" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="10">
+        <v>29771</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="6">
-        <v>29771</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E32" t="s">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8" t="s">
+      <c r="E32" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F32" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G32" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="10">
+        <v>30588</v>
+      </c>
+      <c r="D33" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="6">
-        <v>30588</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F33" s="8" t="s">
+      <c r="E33" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G33" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G33" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="10">
+        <v>29781</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="6">
-        <v>29781</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="8" t="s">
+      <c r="E34" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G34" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="10">
+        <v>30589</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="6">
-        <v>30589</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" t="s">
-        <v>0</v>
-      </c>
-      <c r="F35" s="8" t="s">
+      <c r="E35" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G35" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="10">
+        <v>29796</v>
+      </c>
+      <c r="D36" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="6">
-        <v>29796</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E36" t="s">
-        <v>0</v>
-      </c>
-      <c r="F36" s="8" t="s">
+      <c r="E36" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F36" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G36" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="10">
+        <v>30597</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="6">
-        <v>30597</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" t="s">
-        <v>0</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="E37" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G37" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="10">
+        <v>30598</v>
+      </c>
+      <c r="D38" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="6">
-        <v>30598</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" t="s">
-        <v>0</v>
-      </c>
-      <c r="F38" s="8" t="s">
+      <c r="E38" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G38" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="G38" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="10">
+        <v>29271</v>
+      </c>
+      <c r="D39" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="6">
-        <v>29271</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" t="s">
-        <v>0</v>
-      </c>
-      <c r="F39" s="8" t="s">
+      <c r="E39" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F39" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="10">
+        <v>29274</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="10">
+        <v>29272</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1643,13 +1686,23 @@
     <hyperlink ref="G37" r:id="rId38"/>
     <hyperlink ref="G38" r:id="rId39"/>
     <hyperlink ref="G39" r:id="rId40"/>
+    <hyperlink ref="F40" r:id="rId41"/>
+    <hyperlink ref="G40" r:id="rId42"/>
+    <hyperlink ref="F41" r:id="rId43"/>
+    <hyperlink ref="G41" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId41"/>
+  <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId45"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F9A4161EA500A4C82B491574487E383" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbdf27a2e7bb0cda113f691274120128">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3844b8d3-abe4-4d53-9885-598f7f5968e9" xmlns:ns4="ece5eda8-e753-47e2-b8e3-baa593ba0906" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44f94028078e6778a54268945eec1755" ns3:_="" ns4:_="">
     <xsd:import namespace="3844b8d3-abe4-4d53-9885-598f7f5968e9"/>
@@ -1866,12 +1919,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1882,6 +1929,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21570622-BA50-4B95-A516-7F5AD3F2163E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3844b8d3-abe4-4d53-9885-598f7f5968e9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ece5eda8-e753-47e2-b8e3-baa593ba0906"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B765C67F-B9E6-42DC-B564-BD1C8750B189}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1900,23 +1964,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21570622-BA50-4B95-A516-7F5AD3F2163E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3844b8d3-abe4-4d53-9885-598f7f5968e9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ece5eda8-e753-47e2-b8e3-baa593ba0906"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE461351-54C0-43A4-B6DC-5376C030C0D3}">
   <ds:schemaRefs>

--- a/True List_v2.xlsx
+++ b/True List_v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>Billing And Accrual</t>
   </si>
@@ -300,6 +300,9 @@
   </si>
   <si>
     <t xml:space="preserve">Physicians Regional Medical Center - Pine Ridge </t>
+  </si>
+  <si>
+    <t>Division</t>
   </si>
 </sst>
 </file>
@@ -720,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1231,7 +1234,7 @@
     </row>
     <row r="24" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B24" s="10" t="s">
         <v>33</v>
@@ -1254,7 +1257,7 @@
     </row>
     <row r="25" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B25" s="10" t="s">
         <v>33</v>
@@ -1277,7 +1280,7 @@
     </row>
     <row r="26" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B26" s="10" t="s">
         <v>33</v>
@@ -1300,7 +1303,7 @@
     </row>
     <row r="27" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>33</v>
@@ -1323,7 +1326,7 @@
     </row>
     <row r="28" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>33</v>
@@ -1346,7 +1349,7 @@
     </row>
     <row r="29" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>33</v>
@@ -1369,7 +1372,7 @@
     </row>
     <row r="30" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>33</v>
@@ -1392,7 +1395,7 @@
     </row>
     <row r="31" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>33</v>
@@ -1415,7 +1418,7 @@
     </row>
     <row r="32" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>33</v>
@@ -1438,7 +1441,7 @@
     </row>
     <row r="33" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>33</v>
@@ -1461,7 +1464,7 @@
     </row>
     <row r="34" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>33</v>
@@ -1484,7 +1487,7 @@
     </row>
     <row r="35" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>33</v>
@@ -1507,7 +1510,7 @@
     </row>
     <row r="36" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>33</v>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="37" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>33</v>
@@ -1553,7 +1556,7 @@
     </row>
     <row r="38" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>33</v>
@@ -1576,7 +1579,7 @@
     </row>
     <row r="39" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>33</v>
@@ -1599,7 +1602,7 @@
     </row>
     <row r="40" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>33</v>
@@ -1622,7 +1625,7 @@
     </row>
     <row r="41" spans="1:7" s="10" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>33</v>
@@ -1697,12 +1700,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008F9A4161EA500A4C82B491574487E383" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cbdf27a2e7bb0cda113f691274120128">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3844b8d3-abe4-4d53-9885-598f7f5968e9" xmlns:ns4="ece5eda8-e753-47e2-b8e3-baa593ba0906" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="44f94028078e6778a54268945eec1755" ns3:_="" ns4:_="">
     <xsd:import namespace="3844b8d3-abe4-4d53-9885-598f7f5968e9"/>
@@ -1919,6 +1916,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1929,23 +1932,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21570622-BA50-4B95-A516-7F5AD3F2163E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="3844b8d3-abe4-4d53-9885-598f7f5968e9"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="ece5eda8-e753-47e2-b8e3-baa593ba0906"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B765C67F-B9E6-42DC-B564-BD1C8750B189}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1964,6 +1950,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21570622-BA50-4B95-A516-7F5AD3F2163E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="3844b8d3-abe4-4d53-9885-598f7f5968e9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="ece5eda8-e753-47e2-b8e3-baa593ba0906"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE461351-54C0-43A4-B6DC-5376C030C0D3}">
   <ds:schemaRefs>
